--- a/TestData/TestData001 - Copy.xlsx
+++ b/TestData/TestData001 - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Java\workspace-2\mavan.HRm\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E2D7B-3FF5-46E8-BD88-B038C3CDCC5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C35D8D1-68D6-4869-BABD-EA8AA8C77AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>User Name</t>
   </si>
@@ -72,6 +72,54 @@
   </si>
   <si>
     <t>12345678</t>
+  </si>
+  <si>
+    <t>OtherId</t>
+  </si>
+  <si>
+    <t>DriverLicenseNo.</t>
+  </si>
+  <si>
+    <t>SNNnumber</t>
+  </si>
+  <si>
+    <t>SINnumber</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>Militreyservice</t>
+  </si>
+  <si>
+    <t>1d0123</t>
+  </si>
+  <si>
+    <t>dl12345</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>5678</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>DriverLicenseDate</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
   </si>
 </sst>
 </file>
@@ -116,11 +164,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,28 +451,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -508,10 +566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BD98BC-709C-48B7-BDFE-83E7A0840DCB}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,9 +581,16 @@
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -547,8 +612,29 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -569,6 +655,27 @@
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestData001 - Copy.xlsx
+++ b/TestData/TestData001 - Copy.xlsx
@@ -1,33 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Java\workspace-2\mavan.HRm\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C35D8D1-68D6-4869-BABD-EA8AA8C77AD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98262BF7-0FFC-4149-AD9E-BAE601318E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="UserManagement" sheetId="2" r:id="rId2"/>
-    <sheet name="createCustomer" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="createCustomer" sheetId="3" r:id="rId5"/>
+    <sheet name="DeleteCostomer" sheetId="4" r:id="rId6"/>
+    <sheet name="contactDetails" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>User Name</t>
   </si>
@@ -119,14 +134,131 @@
     <t>DriverLicenseDate</t>
   </si>
   <si>
-    <t>01/01/2000</t>
+    <t>15-Jul-2015</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Jai</t>
+  </si>
+  <si>
+    <t>Veeru</t>
+  </si>
+  <si>
+    <t>Basanti</t>
+  </si>
+  <si>
+    <t>JaiVeeru</t>
+  </si>
+  <si>
+    <t>Jai@123eo23</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>20-Jul-1995</t>
+  </si>
+  <si>
+    <t>15-Jul-2016</t>
+  </si>
+  <si>
+    <t>20-Jul-1992</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of EmployeeID</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>TaxCode</t>
+  </si>
+  <si>
+    <t>AddStreet1</t>
+  </si>
+  <si>
+    <t>AddStreet2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>WorkTelephone</t>
+  </si>
+  <si>
+    <t>WorkEmail</t>
+  </si>
+  <si>
+    <t>OtherEmail</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Ngapur</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>92335</t>
+  </si>
+  <si>
+    <t>345672</t>
+  </si>
+  <si>
+    <t>987654332</t>
+  </si>
+  <si>
+    <t>58633</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>abc@htmail.com</t>
+  </si>
+  <si>
+    <t>DeleteCustomerId</t>
+  </si>
+  <si>
+    <t>0257123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +270,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,12 +302,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -186,6 +330,205 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="pande" refreshedDate="44231.706664004632" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{644E042A-8D79-4E19-8943-228FDE41FA87}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:O1000" sheet="createCustomer"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="FirstName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="MiddleName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LastName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="EmployeeID" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="User Name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Password" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ConfirmPassword" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="OtherId" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="DriverLicenseNo." numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SNNnumber" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="SINnumber" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="NickName" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Militreyservice" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="DriverLicenseDate" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="DOB" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="20-Jul-1995"/>
+        <s v="20-Jul-1992"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <s v="Amar"/>
+    <s v="Akbar"/>
+    <s v="Anthony"/>
+    <s v="12345678"/>
+    <s v="AmarAkbar"/>
+    <s v="Amar@123eo23"/>
+    <s v="Amar@123eo23"/>
+    <s v="1d0123"/>
+    <s v="dl12345"/>
+    <s v="1234"/>
+    <s v="5678"/>
+    <s v="Nick"/>
+    <s v="None"/>
+    <s v="15-Jul-2015"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jai"/>
+    <s v="Veeru"/>
+    <s v="Basanti"/>
+    <s v="12345678"/>
+    <s v="JaiVeeru"/>
+    <s v="Jai@123eo23"/>
+    <s v="Jai@123eo23"/>
+    <s v="1d0123"/>
+    <s v="dl12345"/>
+    <s v="2345"/>
+    <s v="5678"/>
+    <s v="Nick"/>
+    <s v="None"/>
+    <s v="15-Jul-2016"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jai"/>
+    <s v="Veeru"/>
+    <s v="Basanti"/>
+    <s v="1234567"/>
+    <s v="JaiVeeru"/>
+    <s v="Jai@123eo23"/>
+    <s v="Jai@123eo23"/>
+    <s v="1d0123"/>
+    <s v="dl12345"/>
+    <s v="2345"/>
+    <s v="5678"/>
+    <s v="Nick"/>
+    <s v="None"/>
+    <s v="15-Jul-2016"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B534C06-1016-4884-A617-A9B1975D7C13}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="14"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of EmployeeID" fld="3" subtotal="count" baseField="14" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,7 +837,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,11 +908,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315E6E33-1A1C-4E17-B816-D3D7C305C9E3}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93B2B86-49F8-4AAD-ABDD-42C36AD7AE08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BD98BC-709C-48B7-BDFE-83E7A0840DCB}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,10 +999,11 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -633,8 +1046,14 @@
       <c r="N1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -677,11 +1096,244 @@
       <c r="N2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="O2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="e">
+        <f>VLOOKUP(J2,DeleteCostomer!#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="e">
+        <f>VLOOKUP(J3,DeleteCostomer!#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="e">
+        <f>VLOOKUP(J4,DeleteCostomer!#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{D7D5E647-45AE-448E-9E9B-DF58A109F389}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{FE618A25-26B2-46AD-A6C7-224FB6A00150}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{902EAB18-5167-4AB2-8B6B-8C452288A77A}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{1747E7AF-B9ED-4E89-A5A2-C70B655140EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D29BBAC-6533-4743-998C-CE6BBF35AA04}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F5BD1C-8A98-4A13-849C-E8C79416F61C}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{B66FC69F-C871-46D2-B894-3E8A347CBABF}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{7869402B-B38F-4131-8EC4-3A406526F8EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestData001 - Copy.xlsx
+++ b/TestData/TestData001 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Java\workspace-2\mavan.HRm\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98262BF7-0FFC-4149-AD9E-BAE601318E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66E0BE-45BD-49BD-AF1E-3C76B6275E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
     <sheet name="createCustomer" sheetId="3" r:id="rId5"/>
     <sheet name="DeleteCostomer" sheetId="4" r:id="rId6"/>
-    <sheet name="contactDetails" sheetId="8" r:id="rId7"/>
+    <sheet name="Recruitment" sheetId="10" r:id="rId7"/>
+    <sheet name="contactDetails" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>User Name</t>
   </si>
@@ -252,6 +253,42 @@
   </si>
   <si>
     <t>0257123456</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Merry</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>rose@gmial.com</t>
+  </si>
+  <si>
+    <t>Required Skill should match</t>
+  </si>
+  <si>
+    <t>Suitable Candidate</t>
+  </si>
+  <si>
+    <t>9876554421</t>
+  </si>
+  <si>
+    <t>DateOfApplicaton</t>
   </si>
 </sst>
 </file>
@@ -302,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -314,6 +351,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,7 +508,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B534C06-1016-4884-A617-A9B1975D7C13}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B534C06-1016-4884-A617-A9B1975D7C13}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -1222,7 +1260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D29BBAC-6533-4743-998C-CE6BBF35AA04}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1248,6 +1286,86 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EE4261-D779-4966-8A1E-4C4AB78FABA4}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="9">
+        <v>44178</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{70B6BB3E-3D1B-4E30-BE81-099B85A8D186}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F5BD1C-8A98-4A13-849C-E8C79416F61C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
